--- a/Files/DataManagement SystemsReviewed.xlsx
+++ b/Files/DataManagement SystemsReviewed.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdelAbdallah\PhD\CI-Water\WaM-DaM\Design Specifications 2014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdelMAbdallah\Documents\GitHub\WaM-DaM1.0\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary of models" sheetId="1" r:id="rId1"/>
-    <sheet name="common features across models" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="3" r:id="rId1"/>
+    <sheet name="Summary of models" sheetId="1" r:id="rId2"/>
+    <sheet name="common features across models" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk401908772" localSheetId="1">'common features across models'!$B$8</definedName>
-    <definedName name="OLE_LINK19" localSheetId="0">'Summary of models'!$B$6</definedName>
-    <definedName name="OLE_LINK20" localSheetId="0">'Summary of models'!$B$9</definedName>
-    <definedName name="OLE_LINK23" localSheetId="0">'Summary of models'!$B$3</definedName>
-    <definedName name="OLE_LINK26" localSheetId="0">'Summary of models'!$B$11</definedName>
-    <definedName name="OLE_LINK29" localSheetId="0">'Summary of models'!$B$13</definedName>
-    <definedName name="OLE_LINK32" localSheetId="0">'Summary of models'!$B$15</definedName>
-    <definedName name="OLE_LINK35" localSheetId="0">'Summary of models'!$B$17</definedName>
-    <definedName name="OLE_LINK37" localSheetId="0">'Summary of models'!$B$18</definedName>
-    <definedName name="OLE_LINK40" localSheetId="0">'Summary of models'!$B$19</definedName>
-    <definedName name="OLE_LINK43" localSheetId="0">'Summary of models'!$B$21</definedName>
+    <definedName name="_Hlk401908772" localSheetId="2">'common features across models'!$B$8</definedName>
+    <definedName name="OLE_LINK19" localSheetId="1">'Summary of models'!$B$6</definedName>
+    <definedName name="OLE_LINK20" localSheetId="1">'Summary of models'!$B$9</definedName>
+    <definedName name="OLE_LINK23" localSheetId="1">'Summary of models'!$B$3</definedName>
+    <definedName name="OLE_LINK26" localSheetId="1">'Summary of models'!$B$11</definedName>
+    <definedName name="OLE_LINK29" localSheetId="1">'Summary of models'!$B$13</definedName>
+    <definedName name="OLE_LINK32" localSheetId="1">'Summary of models'!$B$15</definedName>
+    <definedName name="OLE_LINK35" localSheetId="1">'Summary of models'!$B$17</definedName>
+    <definedName name="OLE_LINK37" localSheetId="1">'Summary of models'!$B$18</definedName>
+    <definedName name="OLE_LINK40" localSheetId="1">'Summary of models'!$B$19</definedName>
+    <definedName name="OLE_LINK43" localSheetId="1">'Summary of models'!$B$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="258">
   <si>
     <t>#</t>
   </si>
@@ -869,12 +870,21 @@
   <si>
     <t>Irrigation Data Model</t>
   </si>
+  <si>
+    <t>Owner: Adel Abdallah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please cite this review as </t>
+  </si>
+  <si>
+    <t>Abdallah, A., Rosenberg, D., 2014. WaM-DaM: A Data Model to Organize and Synthesize Water Management Data. In: Ames, D.P., Quinn, N.W.T., Rizzoli, A.E. (Eds.), Proceedings of the 7th International Congress on Environmental Modelling and Software, June 15-19, San Diego, California, USA. ISBN: 978-88-9035-744-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,6 +991,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1072,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1153,21 +1169,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,10 +1465,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1543,10 +1600,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -1564,7 +1621,7 @@
       <c r="G3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="31" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="29" t="s">
@@ -1578,14 +1635,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="34"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -1661,10 +1718,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>150</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -1676,7 +1733,7 @@
       <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="30" t="s">
         <v>169</v>
       </c>
       <c r="G7" s="29" t="s">
@@ -1696,12 +1753,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -1709,10 +1766,10 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1724,10 +1781,10 @@
       <c r="E9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -1744,13 +1801,13 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -1827,10 +1884,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="32">
         <v>9</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="34" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -1839,7 +1896,7 @@
       <c r="D13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="30" t="s">
         <v>191</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -1862,11 +1919,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -1875,10 +1932,10 @@
       <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="32">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -1887,10 +1944,10 @@
       <c r="D15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="31" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -1910,12 +1967,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -1993,10 +2050,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="32">
         <v>13</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="29" t="s">
@@ -2005,10 +2062,10 @@
       <c r="D19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="30" t="s">
         <v>219</v>
       </c>
       <c r="G19" s="29" t="s">
@@ -2028,12 +2085,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -2146,10 +2203,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="32">
         <v>17</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="29" t="s">
@@ -2161,7 +2218,7 @@
       <c r="E24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="31" t="s">
         <v>233</v>
       </c>
       <c r="G24" s="29" t="s">
@@ -2181,12 +2238,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="34"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -2229,10 +2286,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="32">
         <v>19</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -2241,7 +2298,7 @@
       <c r="D27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="31" t="s">
         <v>238</v>
       </c>
       <c r="F27" s="29" t="s">
@@ -2250,7 +2307,7 @@
       <c r="G27" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="31" t="s">
         <v>242</v>
       </c>
       <c r="I27" s="29" t="s">
@@ -2264,14 +2321,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -2633,14 +2690,70 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K24:K25"/>
@@ -2657,70 +2770,14 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2728,7 +2785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
